--- a/testFile/userslist.xlsx
+++ b/testFile/userslist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\程嘉朗\IdeaProjects\CS309-OOAD-ProjectHelper\testFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/271cdb3d13ab853e/Code/Java/CS309/CS309-OOAD-ProjectHelper/testFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77AFBD-3A87-46E9-988F-4B41E1B2B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{6F77AFBD-3A87-46E9-988F-4B41E1B2B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D85F5609-BC83-4E91-9842-3296DC349732}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>userId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Bb@123456</t>
-  </si>
-  <si>
-    <t>Bb@123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -64,30 +61,6 @@
   <si>
     <t>ta2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ta3</t>
-  </si>
-  <si>
-    <t>ta4</t>
-  </si>
-  <si>
-    <t>ta5</t>
-  </si>
-  <si>
-    <t>ta6</t>
-  </si>
-  <si>
-    <t>ta7</t>
-  </si>
-  <si>
-    <t>ta8</t>
-  </si>
-  <si>
-    <t>ta9</t>
-  </si>
-  <si>
-    <t>ta10</t>
   </si>
 </sst>
 </file>
@@ -130,9 +103,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -148,6 +120,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,18 +389,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.06640625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,183 +409,47 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>40001000</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>12110041</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>40001001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>12110041</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>40001002</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>40001003</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>40001004</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>40001005</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>40001006</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>40001007</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>40001008</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>40001009</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
